--- a/xlsx/內閣_intext.xlsx
+++ b/xlsx/內閣_intext.xlsx
@@ -29,7 +29,7 @@
     <t>行政机构</t>
   </si>
   <si>
-    <t>政策_政策_行政_內閣</t>
+    <t>体育运动_体育运动_明成祖_內閣</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E5%85%83%E9%A6%96</t>
